--- a/bots/crawl_ch/output/vegi_coop_2022-07-11.xlsx
+++ b/bots/crawl_ch/output/vegi_coop_2022-07-11.xlsx
@@ -585,7 +585,7 @@
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -659,7 +659,7 @@
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -733,7 +733,7 @@
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -807,7 +807,7 @@
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -881,7 +881,7 @@
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -955,7 +955,7 @@
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -1029,7 +1029,7 @@
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -1103,7 +1103,7 @@
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -1251,7 +1251,7 @@
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -1325,7 +1325,7 @@
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -1399,7 +1399,7 @@
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -1473,7 +1473,7 @@
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -1547,7 +1547,7 @@
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -1621,7 +1621,7 @@
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -1695,7 +1695,7 @@
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -1769,7 +1769,7 @@
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -1843,7 +1843,7 @@
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -1917,7 +1917,7 @@
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -2061,7 +2061,7 @@
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -2135,7 +2135,7 @@
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -2209,7 +2209,7 @@
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -2283,7 +2283,7 @@
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -2357,7 +2357,7 @@
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -2431,7 +2431,7 @@
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -2505,7 +2505,7 @@
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -2579,7 +2579,7 @@
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -2653,7 +2653,7 @@
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -2727,7 +2727,7 @@
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -2801,7 +2801,7 @@
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -2875,7 +2875,7 @@
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -2949,7 +2949,7 @@
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -3023,7 +3023,7 @@
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -3101,7 +3101,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -3175,7 +3175,7 @@
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -3253,7 +3253,7 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -3327,7 +3327,7 @@
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -3401,7 +3401,7 @@
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -3459,7 +3459,7 @@
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -3533,7 +3533,7 @@
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -3607,7 +3607,7 @@
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -3681,7 +3681,7 @@
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -3755,7 +3755,7 @@
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -3829,7 +3829,7 @@
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -3907,7 +3907,7 @@
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -3981,7 +3981,7 @@
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -4055,7 +4055,7 @@
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -4129,7 +4129,7 @@
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -4203,7 +4203,7 @@
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -4281,7 +4281,7 @@
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -4355,7 +4355,7 @@
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -4429,7 +4429,7 @@
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -4503,7 +4503,7 @@
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -4577,7 +4577,7 @@
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -4651,7 +4651,7 @@
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -4721,7 +4721,7 @@
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -4795,7 +4795,7 @@
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -4869,7 +4869,7 @@
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -4939,7 +4939,7 @@
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -5013,7 +5013,7 @@
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -5087,7 +5087,7 @@
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -5161,7 +5161,7 @@
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -5235,7 +5235,7 @@
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -5309,7 +5309,7 @@
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -5387,7 +5387,7 @@
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -5461,7 +5461,7 @@
       <c r="O68" t="inlineStr"/>
       <c r="P68" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -5531,7 +5531,7 @@
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -5605,7 +5605,7 @@
       <c r="O70" t="inlineStr"/>
       <c r="P70" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -5675,7 +5675,7 @@
       <c r="O71" t="inlineStr"/>
       <c r="P71" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -5749,7 +5749,7 @@
       <c r="O72" t="inlineStr"/>
       <c r="P72" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -5823,7 +5823,7 @@
       <c r="O73" t="inlineStr"/>
       <c r="P73" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -5897,7 +5897,7 @@
       <c r="O74" t="inlineStr"/>
       <c r="P74" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -5971,7 +5971,7 @@
       <c r="O75" t="inlineStr"/>
       <c r="P75" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -6045,7 +6045,7 @@
       <c r="O76" t="inlineStr"/>
       <c r="P76" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -6119,7 +6119,7 @@
       <c r="O77" t="inlineStr"/>
       <c r="P77" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -6193,7 +6193,7 @@
       <c r="O78" t="inlineStr"/>
       <c r="P78" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -6267,7 +6267,7 @@
       <c r="O79" t="inlineStr"/>
       <c r="P79" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -6341,7 +6341,7 @@
       <c r="O80" t="inlineStr"/>
       <c r="P80" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -6393,7 +6393,7 @@
       <c r="O81" t="inlineStr"/>
       <c r="P81" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -6467,7 +6467,7 @@
       <c r="O82" t="inlineStr"/>
       <c r="P82" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -6545,7 +6545,7 @@
       </c>
       <c r="P83" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -6619,7 +6619,7 @@
       <c r="O84" t="inlineStr"/>
       <c r="P84" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -6697,7 +6697,7 @@
       </c>
       <c r="P85" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -6775,7 +6775,7 @@
       </c>
       <c r="P86" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -6849,7 +6849,7 @@
       <c r="O87" t="inlineStr"/>
       <c r="P87" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -6923,7 +6923,7 @@
       <c r="O88" t="inlineStr"/>
       <c r="P88" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -6997,7 +6997,7 @@
       <c r="O89" t="inlineStr"/>
       <c r="P89" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -7071,36 +7071,36 @@
       <c r="O90" t="inlineStr"/>
       <c r="P90" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>3627815</t>
+          <t>3091453</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Eichblatt-Salat grün 1 Stück</t>
+          <t>Frühkartoffeln ca. 1kg</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/salate/ganze-salate/eichblatt-salat-gruen-1-stueck/p/3627815</t>
+          <t>/de/lebensmittel/fruechte-gemuese/wurzelgemuese/kartoffeln/fruehkartoffeln-ca/p/3091453</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>1kg</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -7114,12 +7114,12 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>1.95/1ST</t>
+          <t>1.95/1kg</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Preis pro 1 Stück</t>
+          <t>Preis pro 1 Kilogramm</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -7129,40 +7129,40 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>1kg</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'ganze-salate']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'wurzelgemuese', 'kartoffeln']</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>Eichblatt-Salat grün 1 Stück 1.95 Schweizer Franken</t>
+          <t>Frühkartoffeln ca. 1kg 1.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O91" t="inlineStr"/>
       <c r="P91" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>3091453</t>
+          <t>6471640</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Frühkartoffeln ca. 1kg</t>
+          <t>Naturaplan Bio Blumenkohl ca. 1kg</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/wurzelgemuese/kartoffeln/fruehkartoffeln-ca/p/3091453</t>
+          <t>/de/lebensmittel/fruechte-gemuese/kohlgemuese/broccoli-blumenkohl/naturaplan-bio-blumenkohl-ca/p/6471640</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -7171,10 +7171,10 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="F92" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -7183,12 +7183,12 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>7.30</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>1.95/1kg</t>
+          <t>7.30/1kg</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -7198,7 +7198,7 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>7.30</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
@@ -7208,44 +7208,44 @@
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'wurzelgemuese', 'kartoffeln']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'kohlgemuese', 'broccoli-blumenkohl']</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>Frühkartoffeln ca. 1kg 1.95 Schweizer Franken</t>
+          <t>Naturaplan Bio Blumenkohl ca. 1kg - Online kein Bestand 7.30 Schweizer Franken</t>
         </is>
       </c>
       <c r="O92" t="inlineStr"/>
       <c r="P92" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>6471640</t>
+          <t>3627815</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Blumenkohl ca. 1kg</t>
+          <t>Eichblatt-Salat grün 1 Stück</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/kohlgemuese/broccoli-blumenkohl/naturaplan-bio-blumenkohl-ca/p/6471640</t>
+          <t>/de/lebensmittel/fruechte-gemuese/salate/ganze-salate/eichblatt-salat-gruen-1-stueck/p/3627815</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>1kg</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F93" t="n">
         <v>4.5</v>
@@ -7257,43 +7257,43 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>7.30</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>7.30/1kg</t>
+          <t>1.95/1ST</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Preis pro 1 Kilogramm</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>7.30</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>1kg</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'kohlgemuese', 'broccoli-blumenkohl']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'ganze-salate']</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Blumenkohl ca. 1kg - Online kein Bestand 7.30 Schweizer Franken</t>
+          <t>Eichblatt-Salat grün 1 Stück 1.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O93" t="inlineStr"/>
       <c r="P93" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -7367,7 +7367,7 @@
       <c r="O94" t="inlineStr"/>
       <c r="P94" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -7441,7 +7441,7 @@
       <c r="O95" t="inlineStr"/>
       <c r="P95" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -7515,7 +7515,7 @@
       <c r="O96" t="inlineStr"/>
       <c r="P96" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -7593,7 +7593,7 @@
       </c>
       <c r="P97" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -7667,7 +7667,7 @@
       <c r="O98" t="inlineStr"/>
       <c r="P98" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -7741,7 +7741,7 @@
       <c r="O99" t="inlineStr"/>
       <c r="P99" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -7815,7 +7815,7 @@
       <c r="O100" t="inlineStr"/>
       <c r="P100" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -7889,7 +7889,7 @@
       <c r="O101" t="inlineStr"/>
       <c r="P101" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -7963,7 +7963,7 @@
       <c r="O102" t="inlineStr"/>
       <c r="P102" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -8041,7 +8041,7 @@
       </c>
       <c r="P103" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -8115,7 +8115,7 @@
       <c r="O104" t="inlineStr"/>
       <c r="P104" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -8189,7 +8189,7 @@
       <c r="O105" t="inlineStr"/>
       <c r="P105" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -8263,7 +8263,7 @@
       <c r="O106" t="inlineStr"/>
       <c r="P106" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -8337,7 +8337,7 @@
       <c r="O107" t="inlineStr"/>
       <c r="P107" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -8415,7 +8415,7 @@
       </c>
       <c r="P108" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -8489,7 +8489,7 @@
       <c r="O109" t="inlineStr"/>
       <c r="P109" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -8563,7 +8563,7 @@
       <c r="O110" t="inlineStr"/>
       <c r="P110" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -8635,7 +8635,7 @@
       <c r="O111" t="inlineStr"/>
       <c r="P111" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -8709,7 +8709,7 @@
       <c r="O112" t="inlineStr"/>
       <c r="P112" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -8783,7 +8783,7 @@
       <c r="O113" t="inlineStr"/>
       <c r="P113" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -8857,7 +8857,7 @@
       <c r="O114" t="inlineStr"/>
       <c r="P114" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -8935,7 +8935,7 @@
       </c>
       <c r="P115" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -9009,7 +9009,7 @@
       <c r="O116" t="inlineStr"/>
       <c r="P116" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -9061,7 +9061,7 @@
       <c r="O117" t="inlineStr"/>
       <c r="P117" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -9135,7 +9135,7 @@
       <c r="O118" t="inlineStr"/>
       <c r="P118" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -9209,7 +9209,7 @@
       <c r="O119" t="inlineStr"/>
       <c r="P119" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -9283,7 +9283,7 @@
       <c r="O120" t="inlineStr"/>
       <c r="P120" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -9357,7 +9357,7 @@
       <c r="O121" t="inlineStr"/>
       <c r="P121" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -9431,7 +9431,7 @@
       <c r="O122" t="inlineStr"/>
       <c r="P122" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -9505,7 +9505,7 @@
       <c r="O123" t="inlineStr"/>
       <c r="P123" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -9579,7 +9579,7 @@
       <c r="O124" t="inlineStr"/>
       <c r="P124" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -9653,7 +9653,7 @@
       <c r="O125" t="inlineStr"/>
       <c r="P125" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -9731,7 +9731,7 @@
       </c>
       <c r="P126" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -9805,7 +9805,7 @@
       <c r="O127" t="inlineStr"/>
       <c r="P127" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -9879,7 +9879,7 @@
       <c r="O128" t="inlineStr"/>
       <c r="P128" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -9957,7 +9957,7 @@
       </c>
       <c r="P129" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -10035,7 +10035,7 @@
       </c>
       <c r="P130" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -10107,7 +10107,7 @@
       <c r="O131" t="inlineStr"/>
       <c r="P131" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -10181,7 +10181,7 @@
       <c r="O132" t="inlineStr"/>
       <c r="P132" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -10259,7 +10259,7 @@
       </c>
       <c r="P133" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -10333,7 +10333,7 @@
       <c r="O134" t="inlineStr"/>
       <c r="P134" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -10411,7 +10411,7 @@
       </c>
       <c r="P135" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -10485,7 +10485,7 @@
       <c r="O136" t="inlineStr"/>
       <c r="P136" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -10559,7 +10559,7 @@
       <c r="O137" t="inlineStr"/>
       <c r="P137" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -10633,7 +10633,7 @@
       <c r="O138" t="inlineStr"/>
       <c r="P138" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -10707,7 +10707,7 @@
       <c r="O139" t="inlineStr"/>
       <c r="P139" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -10781,7 +10781,7 @@
       <c r="O140" t="inlineStr"/>
       <c r="P140" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -10855,7 +10855,7 @@
       <c r="O141" t="inlineStr"/>
       <c r="P141" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -10933,7 +10933,7 @@
       </c>
       <c r="P142" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -11007,7 +11007,7 @@
       <c r="O143" t="inlineStr"/>
       <c r="P143" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -11079,7 +11079,7 @@
       <c r="O144" t="inlineStr"/>
       <c r="P144" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -11149,7 +11149,7 @@
       <c r="O145" t="inlineStr"/>
       <c r="P145" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -11223,7 +11223,7 @@
       <c r="O146" t="inlineStr"/>
       <c r="P146" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -11297,7 +11297,7 @@
       <c r="O147" t="inlineStr"/>
       <c r="P147" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -11371,7 +11371,7 @@
       <c r="O148" t="inlineStr"/>
       <c r="P148" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -11445,7 +11445,7 @@
       <c r="O149" t="inlineStr"/>
       <c r="P149" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -11519,7 +11519,7 @@
       <c r="O150" t="inlineStr"/>
       <c r="P150" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -11593,7 +11593,7 @@
       <c r="O151" t="inlineStr"/>
       <c r="P151" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -11667,7 +11667,7 @@
       <c r="O152" t="inlineStr"/>
       <c r="P152" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -11741,7 +11741,7 @@
       <c r="O153" t="inlineStr"/>
       <c r="P153" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -11813,7 +11813,7 @@
       <c r="O154" t="inlineStr"/>
       <c r="P154" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -11887,7 +11887,7 @@
       <c r="O155" t="inlineStr"/>
       <c r="P155" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -11961,7 +11961,7 @@
       <c r="O156" t="inlineStr"/>
       <c r="P156" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -12035,7 +12035,7 @@
       <c r="O157" t="inlineStr"/>
       <c r="P157" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -12109,7 +12109,7 @@
       <c r="O158" t="inlineStr"/>
       <c r="P158" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -12181,7 +12181,7 @@
       <c r="O159" t="inlineStr"/>
       <c r="P159" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -12259,7 +12259,7 @@
       </c>
       <c r="P160" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -12333,7 +12333,7 @@
       <c r="O161" t="inlineStr"/>
       <c r="P161" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -12391,7 +12391,7 @@
       <c r="O162" t="inlineStr"/>
       <c r="P162" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -12465,7 +12465,7 @@
       <c r="O163" t="inlineStr"/>
       <c r="P163" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -12539,7 +12539,7 @@
       <c r="O164" t="inlineStr"/>
       <c r="P164" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -12613,7 +12613,7 @@
       <c r="O165" t="inlineStr"/>
       <c r="P165" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -12687,7 +12687,7 @@
       <c r="O166" t="inlineStr"/>
       <c r="P166" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -12761,7 +12761,7 @@
       <c r="O167" t="inlineStr"/>
       <c r="P167" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -12839,7 +12839,7 @@
       </c>
       <c r="P168" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -12913,7 +12913,7 @@
       <c r="O169" t="inlineStr"/>
       <c r="P169" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -12981,7 +12981,7 @@
       <c r="O170" t="inlineStr"/>
       <c r="P170" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -13055,7 +13055,7 @@
       <c r="O171" t="inlineStr"/>
       <c r="P171" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -13129,7 +13129,7 @@
       <c r="O172" t="inlineStr"/>
       <c r="P172" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -13203,7 +13203,7 @@
       <c r="O173" t="inlineStr"/>
       <c r="P173" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -13277,7 +13277,7 @@
       <c r="O174" t="inlineStr"/>
       <c r="P174" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -13351,7 +13351,7 @@
       <c r="O175" t="inlineStr"/>
       <c r="P175" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -13425,7 +13425,7 @@
       <c r="O176" t="inlineStr"/>
       <c r="P176" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -13499,7 +13499,7 @@
       <c r="O177" t="inlineStr"/>
       <c r="P177" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -13573,7 +13573,7 @@
       <c r="O178" t="inlineStr"/>
       <c r="P178" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -13631,7 +13631,7 @@
       <c r="O179" t="inlineStr"/>
       <c r="P179" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -13705,7 +13705,7 @@
       <c r="O180" t="inlineStr"/>
       <c r="P180" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -13783,7 +13783,7 @@
       </c>
       <c r="P181" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -13857,7 +13857,7 @@
       <c r="O182" t="inlineStr"/>
       <c r="P182" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -13931,7 +13931,7 @@
       <c r="O183" t="inlineStr"/>
       <c r="P183" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -14005,7 +14005,7 @@
       <c r="O184" t="inlineStr"/>
       <c r="P184" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -14079,7 +14079,7 @@
       <c r="O185" t="inlineStr"/>
       <c r="P185" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -14153,7 +14153,7 @@
       <c r="O186" t="inlineStr"/>
       <c r="P186" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -14227,7 +14227,7 @@
       <c r="O187" t="inlineStr"/>
       <c r="P187" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -14301,7 +14301,7 @@
       <c r="O188" t="inlineStr"/>
       <c r="P188" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -14375,7 +14375,7 @@
       <c r="O189" t="inlineStr"/>
       <c r="P189" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -14453,7 +14453,7 @@
       </c>
       <c r="P190" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -14531,7 +14531,7 @@
       </c>
       <c r="P191" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -14609,7 +14609,7 @@
       </c>
       <c r="P192" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -14687,7 +14687,7 @@
       </c>
       <c r="P193" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -14761,7 +14761,7 @@
       <c r="O194" t="inlineStr"/>
       <c r="P194" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -14835,7 +14835,7 @@
       <c r="O195" t="inlineStr"/>
       <c r="P195" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -14909,7 +14909,7 @@
       <c r="O196" t="inlineStr"/>
       <c r="P196" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -14983,7 +14983,7 @@
       <c r="O197" t="inlineStr"/>
       <c r="P197" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -15059,7 +15059,7 @@
       </c>
       <c r="P198" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -15137,7 +15137,7 @@
       </c>
       <c r="P199" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -15211,7 +15211,7 @@
       <c r="O200" t="inlineStr"/>
       <c r="P200" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -15283,7 +15283,7 @@
       <c r="O201" t="inlineStr"/>
       <c r="P201" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -15361,7 +15361,7 @@
       </c>
       <c r="P202" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -15439,7 +15439,7 @@
       </c>
       <c r="P203" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -15513,7 +15513,7 @@
       <c r="O204" t="inlineStr"/>
       <c r="P204" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -15587,7 +15587,7 @@
       <c r="O205" t="inlineStr"/>
       <c r="P205" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -15661,7 +15661,7 @@
       <c r="O206" t="inlineStr"/>
       <c r="P206" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -15735,7 +15735,7 @@
       <c r="O207" t="inlineStr"/>
       <c r="P207" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -15809,7 +15809,7 @@
       <c r="O208" t="inlineStr"/>
       <c r="P208" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -15887,7 +15887,7 @@
       </c>
       <c r="P209" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -15965,7 +15965,7 @@
       </c>
       <c r="P210" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -16023,7 +16023,7 @@
       <c r="O211" t="inlineStr"/>
       <c r="P211" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -16097,7 +16097,7 @@
       <c r="O212" t="inlineStr"/>
       <c r="P212" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -16169,7 +16169,7 @@
       <c r="O213" t="inlineStr"/>
       <c r="P213" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -16243,7 +16243,7 @@
       <c r="O214" t="inlineStr"/>
       <c r="P214" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -16317,7 +16317,7 @@
       <c r="O215" t="inlineStr"/>
       <c r="P215" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -16391,7 +16391,7 @@
       <c r="O216" t="inlineStr"/>
       <c r="P216" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -16469,7 +16469,7 @@
       </c>
       <c r="P217" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -16543,7 +16543,7 @@
       <c r="O218" t="inlineStr"/>
       <c r="P218" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -16621,7 +16621,7 @@
       </c>
       <c r="P219" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -16699,7 +16699,7 @@
       </c>
       <c r="P220" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -16777,7 +16777,7 @@
       </c>
       <c r="P221" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -16851,7 +16851,7 @@
       <c r="O222" t="inlineStr"/>
       <c r="P222" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -16925,7 +16925,7 @@
       <c r="O223" t="inlineStr"/>
       <c r="P223" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -17003,7 +17003,7 @@
       </c>
       <c r="P224" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -17077,7 +17077,7 @@
       <c r="O225" t="inlineStr"/>
       <c r="P225" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -17155,7 +17155,7 @@
       </c>
       <c r="P226" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -17229,7 +17229,7 @@
       <c r="O227" t="inlineStr"/>
       <c r="P227" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -17303,7 +17303,7 @@
       <c r="O228" t="inlineStr"/>
       <c r="P228" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -17381,7 +17381,7 @@
       </c>
       <c r="P229" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -17455,7 +17455,7 @@
       <c r="O230" t="inlineStr"/>
       <c r="P230" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -17533,7 +17533,7 @@
       </c>
       <c r="P231" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -17607,7 +17607,7 @@
       <c r="O232" t="inlineStr"/>
       <c r="P232" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -17681,7 +17681,7 @@
       <c r="O233" t="inlineStr"/>
       <c r="P233" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -17755,7 +17755,7 @@
       <c r="O234" t="inlineStr"/>
       <c r="P234" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -17833,7 +17833,7 @@
       </c>
       <c r="P235" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -17907,7 +17907,7 @@
       <c r="O236" t="inlineStr"/>
       <c r="P236" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -17985,7 +17985,7 @@
       </c>
       <c r="P237" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -18063,7 +18063,7 @@
       </c>
       <c r="P238" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -18137,7 +18137,7 @@
       <c r="O239" t="inlineStr"/>
       <c r="P239" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -18209,7 +18209,7 @@
       <c r="O240" t="inlineStr"/>
       <c r="P240" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -18287,7 +18287,7 @@
       </c>
       <c r="P241" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -18361,7 +18361,7 @@
       <c r="O242" t="inlineStr"/>
       <c r="P242" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -18435,7 +18435,7 @@
       <c r="O243" t="inlineStr"/>
       <c r="P243" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -18509,7 +18509,7 @@
       <c r="O244" t="inlineStr"/>
       <c r="P244" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -18587,7 +18587,7 @@
       </c>
       <c r="P245" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -18661,7 +18661,7 @@
       <c r="O246" t="inlineStr"/>
       <c r="P246" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -18739,7 +18739,7 @@
       </c>
       <c r="P247" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -18817,7 +18817,7 @@
       </c>
       <c r="P248" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -18891,7 +18891,7 @@
       <c r="O249" t="inlineStr"/>
       <c r="P249" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -18965,7 +18965,7 @@
       <c r="O250" t="inlineStr"/>
       <c r="P250" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -19039,7 +19039,7 @@
       <c r="O251" t="inlineStr"/>
       <c r="P251" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -19113,7 +19113,7 @@
       <c r="O252" t="inlineStr"/>
       <c r="P252" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -19191,7 +19191,7 @@
       </c>
       <c r="P253" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -19269,7 +19269,7 @@
       </c>
       <c r="P254" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -19341,7 +19341,7 @@
       <c r="O255" t="inlineStr"/>
       <c r="P255" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -19415,7 +19415,7 @@
       <c r="O256" t="inlineStr"/>
       <c r="P256" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -19493,7 +19493,7 @@
       </c>
       <c r="P257" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -19567,7 +19567,7 @@
       <c r="O258" t="inlineStr"/>
       <c r="P258" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -19641,7 +19641,7 @@
       <c r="O259" t="inlineStr"/>
       <c r="P259" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -19715,7 +19715,7 @@
       <c r="O260" t="inlineStr"/>
       <c r="P260" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -19793,7 +19793,7 @@
       </c>
       <c r="P261" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -19867,7 +19867,7 @@
       <c r="O262" t="inlineStr"/>
       <c r="P262" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -19941,7 +19941,7 @@
       <c r="O263" t="inlineStr"/>
       <c r="P263" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -20015,7 +20015,7 @@
       <c r="O264" t="inlineStr"/>
       <c r="P264" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -20085,7 +20085,7 @@
       <c r="O265" t="inlineStr"/>
       <c r="P265" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -20159,7 +20159,7 @@
       <c r="O266" t="inlineStr"/>
       <c r="P266" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -20237,7 +20237,7 @@
       </c>
       <c r="P267" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -20315,7 +20315,7 @@
       </c>
       <c r="P268" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -20387,7 +20387,7 @@
       <c r="O269" t="inlineStr"/>
       <c r="P269" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -20465,7 +20465,7 @@
       </c>
       <c r="P270" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -20539,7 +20539,7 @@
       <c r="O271" t="inlineStr"/>
       <c r="P271" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -20617,7 +20617,7 @@
       </c>
       <c r="P272" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -20691,7 +20691,7 @@
       <c r="O273" t="inlineStr"/>
       <c r="P273" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -20767,7 +20767,7 @@
       </c>
       <c r="P274" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -20841,7 +20841,7 @@
       <c r="O275" t="inlineStr"/>
       <c r="P275" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -20915,7 +20915,7 @@
       <c r="O276" t="inlineStr"/>
       <c r="P276" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -20989,7 +20989,7 @@
       <c r="O277" t="inlineStr"/>
       <c r="P277" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -21067,7 +21067,7 @@
       </c>
       <c r="P278" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -21141,7 +21141,7 @@
       <c r="O279" t="inlineStr"/>
       <c r="P279" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -21219,7 +21219,7 @@
       </c>
       <c r="P280" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -21297,7 +21297,7 @@
       </c>
       <c r="P281" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -21375,7 +21375,7 @@
       </c>
       <c r="P282" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -21453,7 +21453,7 @@
       </c>
       <c r="P283" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -21527,7 +21527,7 @@
       <c r="O284" t="inlineStr"/>
       <c r="P284" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -21599,7 +21599,7 @@
       <c r="O285" t="inlineStr"/>
       <c r="P285" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -21677,7 +21677,7 @@
       </c>
       <c r="P286" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -21751,7 +21751,7 @@
       <c r="O287" t="inlineStr"/>
       <c r="P287" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -21825,7 +21825,7 @@
       <c r="O288" t="inlineStr"/>
       <c r="P288" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -21901,7 +21901,7 @@
       </c>
       <c r="P289" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -21979,7 +21979,7 @@
       </c>
       <c r="P290" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -22057,7 +22057,7 @@
       </c>
       <c r="P291" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -22135,7 +22135,7 @@
       </c>
       <c r="P292" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -22213,7 +22213,7 @@
       </c>
       <c r="P293" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -22291,7 +22291,7 @@
       </c>
       <c r="P294" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -22369,7 +22369,7 @@
       </c>
       <c r="P295" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -22443,7 +22443,7 @@
       <c r="O296" t="inlineStr"/>
       <c r="P296" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -22517,7 +22517,7 @@
       <c r="O297" t="inlineStr"/>
       <c r="P297" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -22593,7 +22593,7 @@
       </c>
       <c r="P298" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -22671,7 +22671,7 @@
       </c>
       <c r="P299" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -22743,7 +22743,7 @@
       <c r="O300" t="inlineStr"/>
       <c r="P300" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -22821,7 +22821,7 @@
       </c>
       <c r="P301" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -22893,7 +22893,7 @@
       <c r="O302" t="inlineStr"/>
       <c r="P302" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -22967,7 +22967,7 @@
       <c r="O303" t="inlineStr"/>
       <c r="P303" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -23041,7 +23041,7 @@
       <c r="O304" t="inlineStr"/>
       <c r="P304" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -23119,7 +23119,7 @@
       </c>
       <c r="P305" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -23191,7 +23191,7 @@
       <c r="O306" t="inlineStr"/>
       <c r="P306" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -23269,7 +23269,7 @@
       </c>
       <c r="P307" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -23341,7 +23341,7 @@
       <c r="O308" t="inlineStr"/>
       <c r="P308" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -23415,7 +23415,7 @@
       <c r="O309" t="inlineStr"/>
       <c r="P309" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -23489,7 +23489,7 @@
       <c r="O310" t="inlineStr"/>
       <c r="P310" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -23567,7 +23567,7 @@
       </c>
       <c r="P311" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -23645,7 +23645,7 @@
       </c>
       <c r="P312" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -23723,7 +23723,7 @@
       </c>
       <c r="P313" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -23797,7 +23797,7 @@
       <c r="O314" t="inlineStr"/>
       <c r="P314" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -23871,7 +23871,7 @@
       </c>
       <c r="P315" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -23945,7 +23945,7 @@
       <c r="O316" t="inlineStr"/>
       <c r="P316" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -24019,36 +24019,34 @@
       <c r="O317" t="inlineStr"/>
       <c r="P317" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>4227197</t>
+          <t>7003231</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Broccoli- &amp;amp; Blumenkohl-Röschen</t>
+          <t>Kartoffeln blau IP</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/kohlgemuese/broccoli-blumenkohl/broccoli-blumenkohl-roeschen/p/4227197</t>
+          <t>/de/lebensmittel/fruechte-gemuese/wurzelgemuese/kartoffeln/kartoffeln-blau-ip/p/7003231</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>400g</t>
-        </is>
-      </c>
-      <c r="E318" t="n">
-        <v>8</v>
-      </c>
+          <t>2.5kg</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr"/>
       <c r="F318" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G318" t="inlineStr">
         <is>
@@ -24057,70 +24055,72 @@
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>0.99/100g</t>
+          <t>1.84/1kg</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Kilogramm</t>
         </is>
       </c>
       <c r="K318" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="L318" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1kg</t>
         </is>
       </c>
       <c r="M318" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'kohlgemuese', 'broccoli-blumenkohl']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'wurzelgemuese', 'kartoffeln']</t>
         </is>
       </c>
       <c r="N318" t="inlineStr">
         <is>
-          <t>Broccoli- &amp;amp; Blumenkohl-Röschen 3.95 Schweizer Franken</t>
+          <t>Kartoffeln blau IP 4.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="O318" t="inlineStr"/>
       <c r="P318" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>6402987</t>
+          <t>4227197</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Peperoni farbig</t>
+          <t>Broccoli- &amp;amp; Blumenkohl-Röschen</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/salatgemuese/peperoni/peperoni-farbig/p/6402987</t>
+          <t>/de/lebensmittel/fruechte-gemuese/kohlgemuese/broccoli-blumenkohl/broccoli-blumenkohl-roeschen/p/4227197</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>450g</t>
-        </is>
-      </c>
-      <c r="E319" t="inlineStr"/>
+          <t>400g</t>
+        </is>
+      </c>
+      <c r="E319" t="n">
+        <v>8</v>
+      </c>
       <c r="F319" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G319" t="inlineStr">
         <is>
@@ -24129,12 +24129,12 @@
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>1.07/100g</t>
+          <t>0.99/100g</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
@@ -24144,7 +24144,7 @@
       </c>
       <c r="K319" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="L319" t="inlineStr">
@@ -24154,47 +24154,45 @@
       </c>
       <c r="M319" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'salatgemuese', 'peperoni']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'kohlgemuese', 'broccoli-blumenkohl']</t>
         </is>
       </c>
       <c r="N319" t="inlineStr">
         <is>
-          <t>Peperoni farbig 4.80 Schweizer Franken</t>
+          <t>Broccoli- &amp;amp; Blumenkohl-Röschen 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O319" t="inlineStr"/>
       <c r="P319" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>3410801</t>
+          <t>6402987</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Betty Bossi Naturaplan Bio Alfalfa-Rucola-Sprossen</t>
+          <t>Peperoni farbig</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/kraeuter-gewuerze/sprossen-kresse/betty-bossi-naturaplan-bio-alfalfa-rucola-sprossen/p/3410801</t>
+          <t>/de/lebensmittel/fruechte-gemuese/salatgemuese/peperoni/peperoni-farbig/p/6402987</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>60g</t>
-        </is>
-      </c>
-      <c r="E320" t="n">
-        <v>28</v>
-      </c>
+          <t>450g</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr"/>
       <c r="F320" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G320" t="inlineStr">
         <is>
@@ -24203,12 +24201,12 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>4.92/100g</t>
+          <t>1.07/100g</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
@@ -24218,7 +24216,7 @@
       </c>
       <c r="K320" t="inlineStr">
         <is>
-          <t>4.92</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="L320" t="inlineStr">
@@ -24228,51 +24226,47 @@
       </c>
       <c r="M320" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'kraeuter-gewuerze', 'sprossen-kresse']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'salatgemuese', 'peperoni']</t>
         </is>
       </c>
       <c r="N320" t="inlineStr">
         <is>
-          <t>Betty Bossi Naturaplan Bio Alfalfa-Rucola-Sprossen 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="O320" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Peperoni farbig 4.80 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O320" t="inlineStr"/>
       <c r="P320" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>3425369</t>
+          <t>3410801</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Äpfel ca. 750g</t>
+          <t>Betty Bossi Naturaplan Bio Alfalfa-Rucola-Sprossen</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte/aepfel-birnen/naturaplan-bio-aepfel-ca/p/3425369</t>
+          <t>/de/lebensmittel/fruechte-gemuese/kraeuter-gewuerze/sprossen-kresse/betty-bossi-naturaplan-bio-alfalfa-rucola-sprossen/p/3410801</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>750g</t>
+          <t>60g</t>
         </is>
       </c>
       <c r="E321" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F321" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="G321" t="inlineStr">
         <is>
@@ -24281,12 +24275,12 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>4.70</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>0.63/100g</t>
+          <t>4.92/100g</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
@@ -24296,7 +24290,7 @@
       </c>
       <c r="K321" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>4.92</t>
         </is>
       </c>
       <c r="L321" t="inlineStr">
@@ -24306,12 +24300,12 @@
       </c>
       <c r="M321" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'aepfel-birnen']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'kraeuter-gewuerze', 'sprossen-kresse']</t>
         </is>
       </c>
       <c r="N321" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Äpfel ca. 750g 4.70 Schweizer Franken</t>
+          <t>Betty Bossi Naturaplan Bio Alfalfa-Rucola-Sprossen 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O321" t="inlineStr">
@@ -24321,33 +24315,33 @@
       </c>
       <c r="P321" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>5610199</t>
+          <t>3425369</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Betty Bossi Naturaplan Bio Randen-Stäbli</t>
+          <t>Naturaplan Bio Äpfel ca. 750g</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/wurzelgemuese/randen/betty-bossi-naturaplan-bio-randen-staebli/p/5610199</t>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte/aepfel-birnen/naturaplan-bio-aepfel-ca/p/3425369</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>300g</t>
+          <t>750g</t>
         </is>
       </c>
       <c r="E322" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F322" t="n">
         <v>4.5</v>
@@ -24359,12 +24353,12 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>4.70</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>0.93/100g</t>
+          <t>0.63/100g</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
@@ -24374,7 +24368,7 @@
       </c>
       <c r="K322" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="L322" t="inlineStr">
@@ -24384,12 +24378,12 @@
       </c>
       <c r="M322" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'wurzelgemuese', 'randen']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'aepfel-birnen']</t>
         </is>
       </c>
       <c r="N322" t="inlineStr">
         <is>
-          <t>Betty Bossi Naturaplan Bio Randen-Stäbli 2.80 Schweizer Franken</t>
+          <t>Naturaplan Bio Äpfel ca. 750g 4.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="O322" t="inlineStr">
@@ -24399,34 +24393,36 @@
       </c>
       <c r="P322" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>7003231</t>
+          <t>5610199</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Kartoffeln blau IP</t>
+          <t>Betty Bossi Naturaplan Bio Randen-Stäbli</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/wurzelgemuese/kartoffeln/kartoffeln-blau-ip/p/7003231</t>
+          <t>/de/lebensmittel/fruechte-gemuese/wurzelgemuese/randen/betty-bossi-naturaplan-bio-randen-staebli/p/5610199</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>2.5kg</t>
-        </is>
-      </c>
-      <c r="E323" t="inlineStr"/>
+          <t>300g</t>
+        </is>
+      </c>
+      <c r="E323" t="n">
+        <v>17</v>
+      </c>
       <c r="F323" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="G323" t="inlineStr">
         <is>
@@ -24435,86 +24431,90 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>1.84/1kg</t>
+          <t>0.93/100g</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
         <is>
-          <t>Preis pro 1 Kilogramm</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="K323" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="L323" t="inlineStr">
         <is>
-          <t>1kg</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="M323" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'wurzelgemuese', 'kartoffeln']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'wurzelgemuese', 'randen']</t>
         </is>
       </c>
       <c r="N323" t="inlineStr">
         <is>
-          <t>Kartoffeln blau IP 4.60 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="O323" t="inlineStr"/>
+          <t>Betty Bossi Naturaplan Bio Randen-Stäbli 2.80 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O323" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="P323" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>5692284</t>
+          <t>5803966</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Délicorn vegan Burger</t>
+          <t>Primagusto Himbeeren</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/delicorn-vegan-burger/p/5692284</t>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte/trauben-beeren/beeren/primagusto-himbeeren/p/5803966</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>200g</t>
+          <t>150g</t>
         </is>
       </c>
       <c r="E324" t="n">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="F324" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="G324" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Primagusto</t>
         </is>
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>1.75/100g</t>
+          <t>3.97/100g</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
@@ -24524,7 +24524,7 @@
       </c>
       <c r="K324" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>3.97</t>
         </is>
       </c>
       <c r="L324" t="inlineStr">
@@ -24534,65 +24534,61 @@
       </c>
       <c r="M324" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'pflanzliche-alternativen-zu-fleisch']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'trauben-beeren', 'beeren']</t>
         </is>
       </c>
       <c r="N324" t="inlineStr">
         <is>
-          <t>Délicorn vegan Burger 3.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="O324" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Primagusto Himbeeren 5.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O324" t="inlineStr"/>
       <c r="P324" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>5803966</t>
+          <t>5692284</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Primagusto Himbeeren</t>
+          <t>Délicorn vegan Burger</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte/trauben-beeren/beeren/primagusto-himbeeren/p/5803966</t>
+          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/delicorn-vegan-burger/p/5692284</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>150g</t>
+          <t>200g</t>
         </is>
       </c>
       <c r="E325" t="n">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="F325" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="G325" t="inlineStr">
         <is>
-          <t>Primagusto</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>3.97/100g</t>
+          <t>1.75/100g</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
@@ -24602,7 +24598,7 @@
       </c>
       <c r="K325" t="inlineStr">
         <is>
-          <t>3.97</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="L325" t="inlineStr">
@@ -24612,18 +24608,22 @@
       </c>
       <c r="M325" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'trauben-beeren', 'beeren']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'pflanzliche-alternativen-zu-fleisch']</t>
         </is>
       </c>
       <c r="N325" t="inlineStr">
         <is>
-          <t>Primagusto Himbeeren 5.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="O325" t="inlineStr"/>
+          <t>Délicorn vegan Burger 3.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O325" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="P325" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -24699,7 +24699,7 @@
       </c>
       <c r="P326" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -24777,7 +24777,7 @@
       </c>
       <c r="P327" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -24851,7 +24851,7 @@
       <c r="O328" t="inlineStr"/>
       <c r="P328" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -24929,7 +24929,7 @@
       </c>
       <c r="P329" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -25007,7 +25007,7 @@
       </c>
       <c r="P330" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -25085,7 +25085,7 @@
       </c>
       <c r="P331" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -25161,7 +25161,7 @@
       </c>
       <c r="P332" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -25235,7 +25235,7 @@
       <c r="O333" t="inlineStr"/>
       <c r="P333" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -25313,7 +25313,7 @@
       </c>
       <c r="P334" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -25391,7 +25391,7 @@
       </c>
       <c r="P335" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -25465,7 +25465,7 @@
       <c r="O336" t="inlineStr"/>
       <c r="P336" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -25539,7 +25539,7 @@
       <c r="O337" t="inlineStr"/>
       <c r="P337" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -25617,7 +25617,7 @@
       </c>
       <c r="P338" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -25693,7 +25693,7 @@
       </c>
       <c r="P339" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -25771,7 +25771,7 @@
       </c>
       <c r="P340" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -25849,7 +25849,7 @@
       </c>
       <c r="P341" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -25921,7 +25921,7 @@
       <c r="O342" t="inlineStr"/>
       <c r="P342" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -25995,7 +25995,7 @@
       <c r="O343" t="inlineStr"/>
       <c r="P343" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -26073,7 +26073,7 @@
       </c>
       <c r="P344" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -26147,7 +26147,7 @@
       <c r="O345" t="inlineStr"/>
       <c r="P345" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -26225,7 +26225,7 @@
       </c>
       <c r="P346" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -26303,7 +26303,7 @@
       </c>
       <c r="P347" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -26375,7 +26375,7 @@
       <c r="O348" t="inlineStr"/>
       <c r="P348" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -26449,7 +26449,7 @@
       <c r="O349" t="inlineStr"/>
       <c r="P349" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -26523,7 +26523,7 @@
       <c r="O350" t="inlineStr"/>
       <c r="P350" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -26601,7 +26601,7 @@
       </c>
       <c r="P351" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -26679,7 +26679,7 @@
       </c>
       <c r="P352" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -26753,7 +26753,7 @@
       <c r="O353" t="inlineStr"/>
       <c r="P353" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -26831,7 +26831,7 @@
       </c>
       <c r="P354" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -26905,7 +26905,7 @@
       <c r="O355" t="inlineStr"/>
       <c r="P355" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -26983,7 +26983,7 @@
       </c>
       <c r="P356" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -27061,7 +27061,7 @@
       </c>
       <c r="P357" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -27139,7 +27139,7 @@
       </c>
       <c r="P358" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -27211,7 +27211,7 @@
       <c r="O359" t="inlineStr"/>
       <c r="P359" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -27289,7 +27289,7 @@
       </c>
       <c r="P360" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -27367,7 +27367,7 @@
       </c>
       <c r="P361" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -27445,50 +27445,50 @@
       </c>
       <c r="P362" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>6300714</t>
+          <t>6727999</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Mischpilze geschnitten</t>
+          <t>Garden Gourmet vegetarischer Burger</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/pilze/mischpilze-geschnitten/p/6300714</t>
+          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/garden-gourmet-vegetarischer-burger/p/6727999</t>
         </is>
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>200g</t>
+          <t>750g</t>
         </is>
       </c>
       <c r="E363" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F363" t="n">
         <v>5</v>
       </c>
       <c r="G363" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Garden Gourmet</t>
         </is>
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>14.95</t>
         </is>
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>3.48/100g</t>
+          <t>1.99/100g</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
@@ -27498,7 +27498,7 @@
       </c>
       <c r="K363" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="L363" t="inlineStr">
@@ -27508,61 +27508,65 @@
       </c>
       <c r="M363" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'pilze']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'pflanzliche-alternativen-zu-fleisch']</t>
         </is>
       </c>
       <c r="N363" t="inlineStr">
         <is>
-          <t>Mischpilze geschnitten 6.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="O363" t="inlineStr"/>
+          <t>Garden Gourmet vegetarischer Burger 14.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O363" t="inlineStr">
+        <is>
+          <t>['frozen', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="P363" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>6727999</t>
+          <t>6300714</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Garden Gourmet vegetarischer Burger</t>
+          <t>Mischpilze geschnitten</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/garden-gourmet-vegetarischer-burger/p/6727999</t>
+          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/pilze/mischpilze-geschnitten/p/6300714</t>
         </is>
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>750g</t>
+          <t>200g</t>
         </is>
       </c>
       <c r="E364" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F364" t="n">
         <v>5</v>
       </c>
       <c r="G364" t="inlineStr">
         <is>
-          <t>Garden Gourmet</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>14.95</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>1.99/100g</t>
+          <t>3.48/100g</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
@@ -27572,7 +27576,7 @@
       </c>
       <c r="K364" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>3.48</t>
         </is>
       </c>
       <c r="L364" t="inlineStr">
@@ -27582,22 +27586,18 @@
       </c>
       <c r="M364" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'pflanzliche-alternativen-zu-fleisch']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'pilze']</t>
         </is>
       </c>
       <c r="N364" t="inlineStr">
         <is>
-          <t>Garden Gourmet vegetarischer Burger 14.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="O364" t="inlineStr">
-        <is>
-          <t>['frozen', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Mischpilze geschnitten 6.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O364" t="inlineStr"/>
       <c r="P364" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -27675,7 +27675,7 @@
       </c>
       <c r="P365" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -27747,7 +27747,7 @@
       <c r="O366" t="inlineStr"/>
       <c r="P366" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -27825,7 +27825,7 @@
       </c>
       <c r="P367" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -27903,7 +27903,7 @@
       </c>
       <c r="P368" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -27977,7 +27977,7 @@
       <c r="O369" t="inlineStr"/>
       <c r="P369" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -28055,7 +28055,7 @@
       </c>
       <c r="P370" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -28127,7 +28127,7 @@
       <c r="O371" t="inlineStr"/>
       <c r="P371" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -28201,7 +28201,7 @@
       <c r="O372" t="inlineStr"/>
       <c r="P372" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -28279,7 +28279,7 @@
       </c>
       <c r="P373" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -28351,7 +28351,7 @@
       <c r="O374" t="inlineStr"/>
       <c r="P374" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -28429,7 +28429,7 @@
       </c>
       <c r="P375" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -28503,7 +28503,7 @@
       <c r="O376" t="inlineStr"/>
       <c r="P376" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -28581,7 +28581,7 @@
       </c>
       <c r="P377" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -28659,7 +28659,7 @@
       </c>
       <c r="P378" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -28733,7 +28733,7 @@
       <c r="O379" t="inlineStr"/>
       <c r="P379" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -28807,7 +28807,7 @@
       <c r="O380" t="inlineStr"/>
       <c r="P380" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -28881,7 +28881,7 @@
       <c r="O381" t="inlineStr"/>
       <c r="P381" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -28959,7 +28959,7 @@
       </c>
       <c r="P382" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -29037,7 +29037,7 @@
       </c>
       <c r="P383" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -29115,7 +29115,7 @@
       </c>
       <c r="P384" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -29191,7 +29191,7 @@
       </c>
       <c r="P385" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -29265,7 +29265,7 @@
       <c r="O386" t="inlineStr"/>
       <c r="P386" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -29339,7 +29339,7 @@
       <c r="O387" t="inlineStr"/>
       <c r="P387" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -29413,7 +29413,7 @@
       <c r="O388" t="inlineStr"/>
       <c r="P388" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -29491,7 +29491,7 @@
       </c>
       <c r="P389" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -29561,7 +29561,7 @@
       <c r="O390" t="inlineStr"/>
       <c r="P390" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -29639,7 +29639,7 @@
       </c>
       <c r="P391" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -29713,7 +29713,7 @@
       <c r="O392" t="inlineStr"/>
       <c r="P392" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -29791,7 +29791,7 @@
       </c>
       <c r="P393" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -29867,7 +29867,7 @@
       </c>
       <c r="P394" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -29945,7 +29945,7 @@
       </c>
       <c r="P395" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -30019,7 +30019,7 @@
       <c r="O396" t="inlineStr"/>
       <c r="P396" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -30095,157 +30095,157 @@
       </c>
       <c r="P397" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>7002872</t>
+          <t>6709405</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>Kartoffeln Baked IP</t>
+          <t>Like Meat Like Döner</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/wurzelgemuese/kartoffeln/kartoffeln-baked-ip/p/7002872</t>
+          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/like-meat-like-doener/p/6709405</t>
         </is>
       </c>
       <c r="D398" t="inlineStr">
         <is>
-          <t>2.5kg</t>
-        </is>
-      </c>
-      <c r="E398" t="inlineStr"/>
+          <t>180g</t>
+        </is>
+      </c>
+      <c r="E398" t="n">
+        <v>11</v>
+      </c>
       <c r="F398" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="G398" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>LIKE MEAT</t>
         </is>
       </c>
       <c r="H398" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="I398" t="inlineStr">
         <is>
-          <t>1.84/1kg</t>
+          <t>3.31/100g</t>
         </is>
       </c>
       <c r="J398" t="inlineStr">
         <is>
-          <t>Preis pro 1 Kilogramm</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="K398" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="L398" t="inlineStr">
         <is>
-          <t>1kg</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="M398" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'wurzelgemuese', 'kartoffeln']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'pflanzliche-alternativen-zu-fleisch']</t>
         </is>
       </c>
       <c r="N398" t="inlineStr">
         <is>
-          <t>Kartoffeln Baked IP 4.60 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="O398" t="inlineStr"/>
+          <t>Like Meat Like Döner 5.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O398" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian', 'gluten_free']</t>
+        </is>
+      </c>
       <c r="P398" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>6709405</t>
+          <t>7002872</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>Like Meat Like Döner</t>
+          <t>Kartoffeln Baked IP</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/like-meat-like-doener/p/6709405</t>
+          <t>/de/lebensmittel/fruechte-gemuese/wurzelgemuese/kartoffeln/kartoffeln-baked-ip/p/7002872</t>
         </is>
       </c>
       <c r="D399" t="inlineStr">
         <is>
-          <t>180g</t>
-        </is>
-      </c>
-      <c r="E399" t="n">
-        <v>11</v>
-      </c>
+          <t>2.5kg</t>
+        </is>
+      </c>
+      <c r="E399" t="inlineStr"/>
       <c r="F399" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="G399" t="inlineStr">
         <is>
-          <t>LIKE MEAT</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H399" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="I399" t="inlineStr">
         <is>
-          <t>3.31/100g</t>
+          <t>1.84/1kg</t>
         </is>
       </c>
       <c r="J399" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Kilogramm</t>
         </is>
       </c>
       <c r="K399" t="inlineStr">
         <is>
-          <t>3.31</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="L399" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1kg</t>
         </is>
       </c>
       <c r="M399" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'pflanzliche-alternativen-zu-fleisch']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'wurzelgemuese', 'kartoffeln']</t>
         </is>
       </c>
       <c r="N399" t="inlineStr">
         <is>
-          <t>Like Meat Like Döner 5.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="O399" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian', 'gluten_free']</t>
-        </is>
-      </c>
+          <t>Kartoffeln Baked IP 4.60 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O399" t="inlineStr"/>
       <c r="P399" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -30323,7 +30323,7 @@
       </c>
       <c r="P400" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -30401,7 +30401,7 @@
       </c>
       <c r="P401" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -30475,7 +30475,7 @@
       <c r="O402" t="inlineStr"/>
       <c r="P402" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -30553,7 +30553,7 @@
       </c>
       <c r="P403" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -30627,7 +30627,7 @@
       <c r="O404" t="inlineStr"/>
       <c r="P404" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -30699,7 +30699,7 @@
       <c r="O405" t="inlineStr"/>
       <c r="P405" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -30773,7 +30773,7 @@
       <c r="O406" t="inlineStr"/>
       <c r="P406" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -30847,7 +30847,7 @@
       <c r="O407" t="inlineStr"/>
       <c r="P407" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -30925,7 +30925,7 @@
       </c>
       <c r="P408" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -31003,7 +31003,7 @@
       </c>
       <c r="P409" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -31075,7 +31075,7 @@
       <c r="O410" t="inlineStr"/>
       <c r="P410" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -31153,7 +31153,7 @@
       </c>
       <c r="P411" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -31231,7 +31231,7 @@
       </c>
       <c r="P412" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -31303,7 +31303,7 @@
       <c r="O413" t="inlineStr"/>
       <c r="P413" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -31381,7 +31381,7 @@
       </c>
       <c r="P414" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -31453,7 +31453,7 @@
       <c r="O415" t="inlineStr"/>
       <c r="P415" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -31525,7 +31525,7 @@
       <c r="O416" t="inlineStr"/>
       <c r="P416" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -31599,7 +31599,7 @@
       <c r="O417" t="inlineStr"/>
       <c r="P417" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -31675,7 +31675,7 @@
       </c>
       <c r="P418" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -31753,7 +31753,7 @@
       </c>
       <c r="P419" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -31831,7 +31831,7 @@
       </c>
       <c r="P420" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -31909,7 +31909,7 @@
       </c>
       <c r="P421" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -31987,7 +31987,7 @@
       </c>
       <c r="P422" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -32065,7 +32065,7 @@
       </c>
       <c r="P423" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -32139,7 +32139,7 @@
       <c r="O424" t="inlineStr"/>
       <c r="P424" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -32217,7 +32217,7 @@
       </c>
       <c r="P425" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -32291,7 +32291,7 @@
       <c r="O426" t="inlineStr"/>
       <c r="P426" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -32365,7 +32365,7 @@
       <c r="O427" t="inlineStr"/>
       <c r="P427" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -32443,7 +32443,7 @@
       </c>
       <c r="P428" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -32517,7 +32517,7 @@
       <c r="O429" t="inlineStr"/>
       <c r="P429" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -32591,7 +32591,7 @@
       <c r="O430" t="inlineStr"/>
       <c r="P430" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -32665,7 +32665,7 @@
       <c r="O431" t="inlineStr"/>
       <c r="P431" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -32743,7 +32743,7 @@
       </c>
       <c r="P432" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -32821,7 +32821,7 @@
       </c>
       <c r="P433" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -32899,7 +32899,7 @@
       </c>
       <c r="P434" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -32977,7 +32977,7 @@
       </c>
       <c r="P435" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -33055,7 +33055,7 @@
       </c>
       <c r="P436" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -33129,7 +33129,7 @@
       <c r="O437" t="inlineStr"/>
       <c r="P437" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -33205,7 +33205,7 @@
       </c>
       <c r="P438" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -33279,7 +33279,7 @@
       <c r="O439" t="inlineStr"/>
       <c r="P439" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -33351,7 +33351,7 @@
       <c r="O440" t="inlineStr"/>
       <c r="P440" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -33425,7 +33425,7 @@
       <c r="O441" t="inlineStr"/>
       <c r="P441" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -33499,7 +33499,7 @@
       <c r="O442" t="inlineStr"/>
       <c r="P442" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -33573,7 +33573,7 @@
       <c r="O443" t="inlineStr"/>
       <c r="P443" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -33645,7 +33645,7 @@
       <c r="O444" t="inlineStr"/>
       <c r="P444" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -33719,7 +33719,7 @@
       <c r="O445" t="inlineStr"/>
       <c r="P445" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -33793,7 +33793,7 @@
       <c r="O446" t="inlineStr"/>
       <c r="P446" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -33871,7 +33871,7 @@
       </c>
       <c r="P447" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -33945,7 +33945,7 @@
       <c r="O448" t="inlineStr"/>
       <c r="P448" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -34019,7 +34019,7 @@
       <c r="O449" t="inlineStr"/>
       <c r="P449" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -34097,7 +34097,7 @@
       </c>
       <c r="P450" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -34175,7 +34175,7 @@
       </c>
       <c r="P451" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -34253,7 +34253,7 @@
       </c>
       <c r="P452" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -34327,7 +34327,7 @@
       <c r="O453" t="inlineStr"/>
       <c r="P453" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -34401,7 +34401,7 @@
       <c r="O454" t="inlineStr"/>
       <c r="P454" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -34479,7 +34479,7 @@
       </c>
       <c r="P455" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -34555,7 +34555,7 @@
       </c>
       <c r="P456" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -34633,7 +34633,7 @@
       </c>
       <c r="P457" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -34705,7 +34705,7 @@
       <c r="O458" t="inlineStr"/>
       <c r="P458" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -34779,7 +34779,7 @@
       <c r="O459" t="inlineStr"/>
       <c r="P459" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -34857,7 +34857,7 @@
       </c>
       <c r="P460" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -34933,7 +34933,7 @@
       </c>
       <c r="P461" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -35011,7 +35011,7 @@
       </c>
       <c r="P462" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -35089,7 +35089,7 @@
       </c>
       <c r="P463" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -35163,7 +35163,7 @@
       <c r="O464" t="inlineStr"/>
       <c r="P464" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -35239,7 +35239,7 @@
       </c>
       <c r="P465" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -35317,7 +35317,7 @@
       </c>
       <c r="P466" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -35395,7 +35395,7 @@
       </c>
       <c r="P467" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -35473,7 +35473,7 @@
       </c>
       <c r="P468" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -35549,7 +35549,7 @@
       </c>
       <c r="P469" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -35625,7 +35625,7 @@
       </c>
       <c r="P470" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -35703,7 +35703,7 @@
       </c>
       <c r="P471" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -35781,7 +35781,7 @@
       </c>
       <c r="P472" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -35859,7 +35859,7 @@
       </c>
       <c r="P473" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -35933,7 +35933,7 @@
       <c r="O474" t="inlineStr"/>
       <c r="P474" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -36011,7 +36011,7 @@
       </c>
       <c r="P475" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -36089,7 +36089,7 @@
       </c>
       <c r="P476" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -36167,7 +36167,7 @@
       </c>
       <c r="P477" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -36241,7 +36241,7 @@
       <c r="O478" t="inlineStr"/>
       <c r="P478" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -36315,7 +36315,7 @@
       <c r="O479" t="inlineStr"/>
       <c r="P479" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -36393,7 +36393,7 @@
       </c>
       <c r="P480" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -36465,7 +36465,7 @@
       <c r="O481" t="inlineStr"/>
       <c r="P481" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -36543,7 +36543,7 @@
       </c>
       <c r="P482" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -36621,7 +36621,7 @@
       </c>
       <c r="P483" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -36695,7 +36695,7 @@
       <c r="O484" t="inlineStr"/>
       <c r="P484" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -36773,7 +36773,7 @@
       </c>
       <c r="P485" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -36835,7 +36835,7 @@
       </c>
       <c r="P486" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -36911,7 +36911,7 @@
       </c>
       <c r="P487" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -36985,7 +36985,7 @@
       <c r="O488" t="inlineStr"/>
       <c r="P488" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -37063,7 +37063,7 @@
       </c>
       <c r="P489" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -37141,7 +37141,7 @@
       </c>
       <c r="P490" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -37213,7 +37213,7 @@
       <c r="O491" t="inlineStr"/>
       <c r="P491" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -37291,7 +37291,7 @@
       </c>
       <c r="P492" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -37369,7 +37369,7 @@
       </c>
       <c r="P493" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -37443,7 +37443,7 @@
       <c r="O494" t="inlineStr"/>
       <c r="P494" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -37521,7 +37521,7 @@
       </c>
       <c r="P495" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -37595,7 +37595,7 @@
       <c r="O496" t="inlineStr"/>
       <c r="P496" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -37669,7 +37669,7 @@
       <c r="O497" t="inlineStr"/>
       <c r="P497" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -37747,7 +37747,7 @@
       </c>
       <c r="P498" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -37823,7 +37823,7 @@
       </c>
       <c r="P499" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -37901,7 +37901,7 @@
       </c>
       <c r="P500" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -37973,7 +37973,7 @@
       <c r="O501" t="inlineStr"/>
       <c r="P501" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -38049,7 +38049,7 @@
       </c>
       <c r="P502" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -38123,7 +38123,7 @@
       <c r="O503" t="inlineStr"/>
       <c r="P503" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -38197,7 +38197,7 @@
       <c r="O504" t="inlineStr"/>
       <c r="P504" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -38275,7 +38275,7 @@
       </c>
       <c r="P505" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -38353,7 +38353,7 @@
       </c>
       <c r="P506" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -38431,7 +38431,7 @@
       </c>
       <c r="P507" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -38509,7 +38509,7 @@
       </c>
       <c r="P508" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -38581,7 +38581,7 @@
       <c r="O509" t="inlineStr"/>
       <c r="P509" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -38653,7 +38653,7 @@
       <c r="O510" t="inlineStr"/>
       <c r="P510" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -38725,7 +38725,7 @@
       <c r="O511" t="inlineStr"/>
       <c r="P511" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -38803,7 +38803,7 @@
       </c>
       <c r="P512" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -38881,7 +38881,7 @@
       </c>
       <c r="P513" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -38955,7 +38955,7 @@
       <c r="O514" t="inlineStr"/>
       <c r="P514" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -39031,7 +39031,7 @@
       </c>
       <c r="P515" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
@@ -39107,7 +39107,7 @@
       </c>
       <c r="P516" t="inlineStr">
         <is>
-          <t>2022-07-11 18:32:16</t>
+          <t>2022-07-11 20:51:13</t>
         </is>
       </c>
     </row>
